--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14340" windowHeight="4152" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14340" windowHeight="4155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
   <si>
     <t>TC</t>
   </si>
@@ -164,12 +169,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,13 +312,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -359,7 +370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,9 +403,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,6 +455,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,22 +647,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -645,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -659,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -680,23 +725,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -722,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -743,7 +788,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -764,7 +809,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -785,7 +830,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -806,7 +851,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -829,7 +874,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$B$19:$B$20</formula1>
     </dataValidation>
   </dataValidations>
@@ -838,26 +883,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -898,7 +943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
@@ -933,7 +978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="12" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>47</v>
       </c>
@@ -970,7 +1015,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>47</v>
       </c>
@@ -1007,7 +1052,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
@@ -1044,7 +1089,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>47</v>
       </c>
@@ -1083,35 +1128,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A6" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3:A6" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1152,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
@@ -1175,7 +1220,7 @@
         <v>40</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>43</v>
@@ -1189,7 +1234,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14340" windowHeight="4155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="396" windowWidth="14340" windowHeight="4152" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -51,21 +46,6 @@
     <t>Error</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -165,20 +145,35 @@
     <t>December-2017</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO 2040M EMPLOYER</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 385</t>
+  </si>
+  <si>
+    <t>2040M_Payroll</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 386</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 387</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 388</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 389</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,12 +187,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -206,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,12 +205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,9 +236,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -274,9 +257,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,27 +272,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,26 +374,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,23 +409,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -647,22 +584,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,10 +615,10 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -690,12 +627,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -704,12 +641,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -725,37 +662,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -767,105 +704,105 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>5424</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>25</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>46272</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>180009.72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>36000</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>24</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>6000</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
@@ -874,7 +811,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6">
       <formula1>$B$19:$B$20</formula1>
     </dataValidation>
   </dataValidations>
@@ -883,358 +820,361 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="K1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="K2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="G3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="I6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A3:A6" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="K1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="H2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="396" windowWidth="14340" windowHeight="4152" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4152" windowWidth="14340" xWindow="396" yWindow="396"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="3" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="4" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="3"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>TC</t>
   </si>
@@ -173,6 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,59 +235,59 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -303,10 +304,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -464,7 +465,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -473,13 +474,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -489,7 +490,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -498,7 +499,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -507,7 +508,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -517,12 +518,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -553,7 +554,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -572,7 +573,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -584,7 +585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -593,13 +594,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -627,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -641,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -656,13 +657,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -671,14 +672,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -704,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>44</v>
       </c>
@@ -811,16 +812,16 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C6" type="list">
       <formula1>$B$19:$B$20</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -829,17 +830,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="1" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
@@ -880,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="60" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>43</v>
       </c>
@@ -915,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="63.6" r="3" s="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>43</v>
       </c>
@@ -952,7 +953,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="69" r="4" s="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>43</v>
       </c>
@@ -989,7 +990,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="60.6" r="5" s="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>43</v>
       </c>
@@ -1026,7 +1027,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="63.6" r="6" s="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>43</v>
       </c>
@@ -1065,18 +1066,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A3"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId3" ref="A4"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId4" ref="A5"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId5" ref="A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1085,18 +1086,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="1" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="57.6" r="2" s="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>43</v>
       </c>
@@ -1174,8 +1175,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
   <si>
     <t>TC</t>
   </si>
